--- a/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02232809757121444</v>
+        <v>0.02302725413415794</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01592280213239141</v>
+        <v>0.01594860478317449</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03435635679684691</v>
+        <v>0.03251056668393891</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02688790660441983</v>
+        <v>0.0261070811103904</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02057177047944665</v>
+        <v>0.02099872790599313</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01773482245439272</v>
+        <v>0.01898202263011001</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2076731719477929</v>
+        <v>0.2220272863468382</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2984830794604893</v>
+        <v>0.2270218477753787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1567501895555018</v>
+        <v>0.1438418897061073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.165356977454796</v>
+        <v>0.1448817497587949</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1914447070960896</v>
+        <v>0.1544192417647304</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.2410034524824801</v>
+        <v>0.2024097569499864</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2772316226856046</v>
+        <v>0.2625161574469912</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1520588803900111</v>
+        <v>0.1561419108266298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1382550669496506</v>
+        <v>0.1493701464790145</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1287658115616609</v>
+        <v>0.1343658268706408</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1630572229054791</v>
+        <v>0.157511907581965</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.03808715679337584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08347851513480464</v>
+        <v>0.08347851513480466</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05993243724732691</v>
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02609406067271405</v>
+        <v>0.02592715915867439</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0120855261345927</v>
+        <v>0.01217963741360221</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02343468048791619</v>
+        <v>0.0238429594806903</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0</v>
+        <v>0.0156622220847079</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02840486956898925</v>
+        <v>0.0290365144620925</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00807483362800715</v>
+        <v>0.008112233790183729</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02272059825433065</v>
+        <v>0.0279325163716866</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1952912419807357</v>
+        <v>0.1919816940569721</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2051933093009317</v>
+        <v>0.2004133821171064</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1090196689354673</v>
+        <v>0.1012190938838358</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2183896145475637</v>
+        <v>0.2213082339069309</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1839417671197368</v>
+        <v>0.1822114080768549</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2577808351035117</v>
+        <v>0.3290178184718343</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.1253589635390649</v>
+        <v>0.136066878180338</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1539205112959559</v>
+        <v>0.1560463706065734</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1468640291356484</v>
+        <v>0.1496628283453961</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06900356038682844</v>
+        <v>0.07928721147404021</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1415551057949399</v>
+        <v>0.1503519508029058</v>
       </c>
     </row>
     <row r="10">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02623424743034929</v>
+        <v>0.02683249116994856</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07164032125810332</v>
+        <v>0.06887177366481376</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09556101405547419</v>
+        <v>0.09711115600897677</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03460850685669105</v>
+        <v>0.03444623331475945</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1018798703185205</v>
+        <v>0.1015722471766744</v>
       </c>
     </row>
     <row r="12">
@@ -1014,38 +1014,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2393267835915351</v>
+        <v>0.2242763116873613</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.348768907793399</v>
+        <v>0.4178070079121604</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2146283504049271</v>
+        <v>0.1720684853404755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2567996206133059</v>
+        <v>0.2612330980998832</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.277427872228891</v>
+        <v>0.3178062661368786</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.2838443936035173</v>
+        <v>0.3592491509696066</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2748087185083747</v>
+        <v>0.2846052136908227</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1906212492460854</v>
+        <v>0.202710845697061</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2278857100883171</v>
+        <v>0.2976335788205941</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1765298482605032</v>
+        <v>0.1522800194739479</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2318262310004225</v>
+        <v>0.2427081078882554</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.01562808410947508</v>
+        <v>0.01562808410947509</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07359568293137132</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01646640142766827</v>
+        <v>0.01639615210532024</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03266474366040868</v>
+        <v>0.02689676188158274</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01418311279404814</v>
+        <v>0.007958443405728323</v>
       </c>
     </row>
     <row r="15">
@@ -1146,38 +1146,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1598453252326221</v>
+        <v>0.1467040838755594</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5604595884059151</v>
+        <v>0.5571890300703568</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1535462892517706</v>
+        <v>0.1574057940473345</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3650295207594065</v>
+        <v>0.3243658250812729</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2691060280464771</v>
+        <v>0.2735589181731158</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6453255321720187</v>
+        <v>0.6558564011008375</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.07585183485699726</v>
+        <v>0.09487863442991484</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1457882975264129</v>
+        <v>0.1457280500274679</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3914064003955511</v>
+        <v>0.3948213929978918</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07398453092002392</v>
+        <v>0.07352238086611448</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1905461288609507</v>
+        <v>0.1870548797638777</v>
       </c>
     </row>
     <row r="16">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02681870670053483</v>
+        <v>0.02681870670053482</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2860508594148544</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0384653559269021</v>
+        <v>0.03867262311595011</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>0.06184037803619228</v>
+        <v>0.05804046085749458</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
@@ -1270,30 +1270,30 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3062766844692059</v>
+        <v>0.3114973598263143</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5593771275423622</v>
+        <v>0.5864360868321264</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.1450400288277632</v>
+        <v>0.1435632796903878</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7178070460643891</v>
+        <v>0.7181343694709504</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.3501349695787822</v>
+        <v>0.3197483044843972</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.320884574926907</v>
+        <v>0.3231239679913054</v>
       </c>
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="n">
-        <v>0.09636437968293642</v>
+        <v>0.1009985415729254</v>
       </c>
     </row>
     <row r="19">
@@ -1352,14 +1352,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05039527273827939</v>
+        <v>0.04923580931164155</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1231151753557942</v>
+        <v>0.1171063027932396</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1367,17 +1367,17 @@
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.01542936501268868</v>
+        <v>0.01571007886272884</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05500565666139193</v>
+        <v>0.05488378403525816</v>
       </c>
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08691933150474829</v>
+        <v>0.08184773174763046</v>
       </c>
     </row>
     <row r="21">
@@ -1388,32 +1388,32 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2959906690385397</v>
+        <v>0.2799065904088161</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.2666231734489357</v>
+        <v>0.2572415217292413</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4019176364233201</v>
+        <v>0.409418043964755</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3111985828930323</v>
+        <v>0.2983050330781131</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.1435561840576492</v>
+        <v>0.1570596091528984</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2527407045375914</v>
+        <v>0.2485192060392697</v>
       </c>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.2276481192569725</v>
+        <v>0.1994627305173451</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2567151008858028</v>
+        <v>0.2493769715886225</v>
       </c>
     </row>
     <row r="22">
@@ -1472,17 +1472,17 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06171538963365374</v>
+        <v>0.06183881105497963</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08796590391092103</v>
+        <v>0.08324217246451075</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06325767625107584</v>
+        <v>0.04895374061715842</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1178880993579745</v>
+        <v>0.1178556854365175</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07648402205503316</v>
+        <v>0.07534129537098619</v>
       </c>
       <c r="L23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.007684046889150006</v>
+        <v>0.008313042428557939</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1197743695507806</v>
+        <v>0.1181322135753115</v>
       </c>
     </row>
     <row r="24">
@@ -1514,38 +1514,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2286356088299734</v>
+        <v>0.223680423312958</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.0885658439470519</v>
+        <v>0.1217831661135181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2831994872454564</v>
+        <v>0.2741285325584397</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2777590867762844</v>
+        <v>0.2809469703062554</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1403275573894221</v>
+        <v>0.1742071086650741</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1203433314653325</v>
+        <v>0.126894528091801</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3042907439921121</v>
+        <v>0.290754524295996</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1998272307488565</v>
+        <v>0.2025067876721318</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09714183489895359</v>
+        <v>0.07191619401358716</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07462097476352861</v>
+        <v>0.0777468423899258</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2539851026732809</v>
+        <v>0.2472420513781497</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02593926449666666</v>
+        <v>0.02368287100565259</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
       <c r="E26" s="5" t="inlineStr"/>
       <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="n">
-        <v>0.06594177580674948</v>
+        <v>0.06464660112184419</v>
       </c>
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="inlineStr"/>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04814989941692827</v>
+        <v>0.05070657621887449</v>
       </c>
       <c r="L26" s="5" t="n">
         <v>0</v>
@@ -1638,30 +1638,30 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1085064775259245</v>
+        <v>0.1134845062998302</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2767135561197147</v>
+        <v>0.2653802295244168</v>
       </c>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="inlineStr"/>
       <c r="G27" s="5" t="n">
-        <v>0.2673982498153551</v>
+        <v>0.2821364966349518</v>
       </c>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="n">
-        <v>0.1277593798460333</v>
+        <v>0.1122945403022946</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1395176524747012</v>
+        <v>0.1417767390923705</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2047616079149199</v>
+        <v>0.1868297333624587</v>
       </c>
       <c r="M27" s="5" t="inlineStr"/>
       <c r="N27" s="5" t="n">
-        <v>0.06684025809588512</v>
+        <v>0.06224564951033555</v>
       </c>
     </row>
     <row r="28">
@@ -1697,7 +1697,7 @@
         <v>0.02466260171940221</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0930011943178546</v>
+        <v>0.09300119431785459</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.09706912860001349</v>
@@ -1709,7 +1709,7 @@
         <v>0.03107256279413963</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.09859468422985404</v>
+        <v>0.09859468422985405</v>
       </c>
     </row>
     <row r="29">
@@ -1720,40 +1720,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01928503967461251</v>
+        <v>0.01756706258717588</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07508073457716644</v>
+        <v>0.07172814440834813</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.06756242123815775</v>
+        <v>0.06678987972572774</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01915936545519582</v>
+        <v>0.01838888204597694</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.07828796779680422</v>
+        <v>0.0783738043201891</v>
       </c>
     </row>
     <row r="30">
@@ -1764,40 +1764,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05647942569834288</v>
+        <v>0.06052529138787869</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1492238233511179</v>
+        <v>0.1416208733048175</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1256912531364117</v>
+        <v>0.1224636872196535</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.04734982945718486</v>
+        <v>0.04943962496691168</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1243406044718341</v>
+        <v>0.1268568491459049</v>
       </c>
     </row>
     <row r="31">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>957</v>
+        <v>987</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -2091,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1921</v>
+        <v>1866</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2007</v>
+        <v>2049</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>727</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7">
@@ -2114,38 +2114,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8898</v>
+        <v>9513</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4786</v>
+        <v>3641</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8887</v>
+        <v>8155</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4096</v>
+        <v>3589</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5479</v>
+        <v>4419</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>9853</v>
+        <v>8275</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4493</v>
+        <v>4254</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10867</v>
+        <v>11158</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>4173</v>
+        <v>4509</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12565</v>
+        <v>13112</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6682</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="8">
@@ -2248,16 +2248,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1889</v>
+        <v>1877</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1125</v>
+        <v>1145</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2267,19 +2267,19 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2985</v>
+        <v>3051</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2134</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="11">
@@ -2290,38 +2290,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14139</v>
+        <v>13899</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4983</v>
+        <v>4867</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9025</v>
+        <v>8380</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10484</v>
+        <v>10624</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6013</v>
+        <v>5956</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4184</v>
+        <v>5340</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>5756</v>
+        <v>6247</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>16175</v>
+        <v>16398</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>5950</v>
+        <v>6064</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>8659</v>
+        <v>9949</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13295</v>
+        <v>14121</v>
       </c>
     </row>
     <row r="12">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>961</v>
+        <v>982</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3506</v>
+        <v>3371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4379</v>
+        <v>4450</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9655</v>
+        <v>9626</v>
       </c>
     </row>
     <row r="15">
@@ -2466,38 +2466,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8763</v>
+        <v>8212</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4088</v>
+        <v>4898</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4562</v>
+        <v>3657</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12568</v>
+        <v>12785</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6027</v>
+        <v>6904</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>3548</v>
+        <v>4491</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12593</v>
+        <v>13042</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11121</v>
+        <v>11826</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4064</v>
+        <v>5308</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>5959</v>
+        <v>5140</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>21970</v>
+        <v>23001</v>
       </c>
     </row>
     <row r="16">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2647</v>
+        <v>2179</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1518</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19">
@@ -2642,38 +2642,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9323</v>
+        <v>8556</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5075</v>
+        <v>5045</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4985</v>
+        <v>5110</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19772</v>
+        <v>17570</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6110</v>
+        <v>6211</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4331</v>
+        <v>4401</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>4009</v>
+        <v>5015</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11813</v>
+        <v>11808</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>6171</v>
+        <v>6225</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>4617</v>
+        <v>4588</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>20392</v>
+        <v>20018</v>
       </c>
     </row>
     <row r="20">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="inlineStr"/>
       <c r="K22" s="6" t="n">
-        <v>1851</v>
+        <v>1737</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
@@ -2810,30 +2810,30 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7030</v>
+        <v>7150</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5711</v>
+        <v>5988</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>3141</v>
+        <v>3109</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5003</v>
+        <v>5005</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>10478</v>
+        <v>9568</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6095</v>
+        <v>6137</v>
       </c>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="n">
-        <v>3360</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="24">
@@ -2936,14 +2936,14 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2107</v>
+        <v>2059</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4047</v>
+        <v>3849</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2951,17 +2951,17 @@
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3075</v>
+        <v>3068</v>
       </c>
       <c r="L26" s="6" t="inlineStr"/>
       <c r="M26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>5475</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="27">
@@ -2972,32 +2972,32 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12375</v>
+        <v>11703</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5981</v>
+        <v>5771</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13210</v>
+        <v>13457</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4386</v>
+        <v>4204</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>4324</v>
+        <v>4731</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>14129</v>
+        <v>13893</v>
       </c>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>6798</v>
+        <v>5956</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>16171</v>
+        <v>15709</v>
       </c>
     </row>
     <row r="28">
@@ -3100,17 +3100,17 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5408</v>
+        <v>5419</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7475</v>
+        <v>7074</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2754</v>
+        <v>2131</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
@@ -3119,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9516</v>
+        <v>9513</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>10032</v>
+        <v>9882</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1030</v>
+        <v>1114</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>19846</v>
+        <v>19574</v>
       </c>
     </row>
     <row r="31">
@@ -3142,38 +3142,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20035</v>
+        <v>19600</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>6938</v>
+        <v>9541</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>24065</v>
+        <v>23295</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12092</v>
+        <v>12231</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3964</v>
+        <v>4921</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>6701</v>
+        <v>7066</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>24561</v>
+        <v>23469</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26210</v>
+        <v>26561</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5269</v>
+        <v>3901</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>10001</v>
+        <v>10420</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>42084</v>
+        <v>40967</v>
       </c>
     </row>
     <row r="32">
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2825</v>
+        <v>2579</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
       <c r="E34" s="6" t="inlineStr"/>
       <c r="F34" s="6" t="inlineStr"/>
       <c r="G34" s="6" t="n">
-        <v>3283</v>
+        <v>3218</v>
       </c>
       <c r="H34" s="6" t="inlineStr"/>
       <c r="I34" s="6" t="inlineStr"/>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>7641</v>
+        <v>8047</v>
       </c>
       <c r="L34" s="6" t="n">
         <v>0</v>
@@ -3310,30 +3310,30 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>11818</v>
+        <v>12360</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6236</v>
+        <v>5981</v>
       </c>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="inlineStr"/>
       <c r="G35" s="6" t="n">
-        <v>13313</v>
+        <v>14046</v>
       </c>
       <c r="H35" s="6" t="inlineStr"/>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="n">
-        <v>7344</v>
+        <v>6455</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>22142</v>
+        <v>22500</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>7323</v>
+        <v>6682</v>
       </c>
       <c r="M35" s="6" t="inlineStr"/>
       <c r="N35" s="6" t="n">
-        <v>8251</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="36">
@@ -3436,40 +3436,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6714</v>
+        <v>6115</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>28631</v>
+        <v>27353</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>23129</v>
+        <v>22865</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>10814</v>
+        <v>10379</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>56655</v>
+        <v>56717</v>
       </c>
     </row>
     <row r="39">
@@ -3480,40 +3480,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>19662</v>
+        <v>21070</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>56905</v>
+        <v>54006</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>43029</v>
+        <v>41924</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>26725</v>
+        <v>27905</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>89982</v>
+        <v>91803</v>
       </c>
     </row>
     <row r="40">
